--- a/실무_엑셀_예제_파일/Chapter02/02-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E0DE9-60FF-410F-BA02-33BAC880CA5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE149C6-06A5-43E8-97C7-B8ECC597BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BF74496-AD5C-42E8-A929-7204B5716611}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3BF74496-AD5C-42E8-A929-7204B5716611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,189 +587,193 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="5" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 D1:D1048576" xr:uid="{C86077D0-5011-4385-9C99-A4AB9E6F5DA6}"/>
+    <dataValidation imeMode="halfHangul" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 E1:E1048576" xr:uid="{C7C3F2AD-ED58-4726-B0F7-0934B8DAF392}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>